--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>Ptprb</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H2">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I2">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J2">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.792055307549</v>
+        <v>177.977656</v>
       </c>
       <c r="N2">
-        <v>172.792055307549</v>
+        <v>533.932968</v>
       </c>
       <c r="O2">
-        <v>0.9967712887564819</v>
+        <v>0.9961032083749486</v>
       </c>
       <c r="P2">
-        <v>0.9967712887564819</v>
+        <v>0.9961032083749484</v>
       </c>
       <c r="Q2">
-        <v>17272.82244542596</v>
+        <v>259.703749791608</v>
       </c>
       <c r="R2">
-        <v>17272.82244542596</v>
+        <v>2337.333748124472</v>
       </c>
       <c r="S2">
-        <v>0.972863363581667</v>
+        <v>0.01353952006129292</v>
       </c>
       <c r="T2">
-        <v>0.972863363581667</v>
+        <v>0.01353952006129292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H3">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I3">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J3">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.342281076772348</v>
+        <v>0.357538</v>
       </c>
       <c r="N3">
-        <v>0.342281076772348</v>
+        <v>1.072614</v>
       </c>
       <c r="O3">
-        <v>0.00197448863840457</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="P3">
-        <v>0.00197448863840457</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="Q3">
-        <v>34.21546352345337</v>
+        <v>0.5217169468340001</v>
       </c>
       <c r="R3">
-        <v>34.21546352345337</v>
+        <v>4.695452521506001</v>
       </c>
       <c r="S3">
-        <v>0.001927129803777231</v>
+        <v>2.71994419550876E-05</v>
       </c>
       <c r="T3">
-        <v>0.001927129803777231</v>
+        <v>2.719944195508759E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H4">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I4">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J4">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0802400966860994</v>
+        <v>0.119059</v>
       </c>
       <c r="N4">
-        <v>0.0802400966860994</v>
+        <v>0.357177</v>
       </c>
       <c r="O4">
-        <v>0.0004628744327474515</v>
+        <v>0.0006663479818270728</v>
       </c>
       <c r="P4">
-        <v>0.0004628744327474515</v>
+        <v>0.0006663479818270726</v>
       </c>
       <c r="Q4">
-        <v>8.021045531265559</v>
+        <v>0.173730059387</v>
       </c>
       <c r="R4">
-        <v>8.021045531265559</v>
+        <v>1.563570534483</v>
       </c>
       <c r="S4">
-        <v>0.0004517722196035851</v>
+        <v>9.05732638133786E-06</v>
       </c>
       <c r="T4">
-        <v>0.0004517722196035851</v>
+        <v>9.057326381337855E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H5">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I5">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J5">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.137181596931404</v>
+        <v>0.04906366666666667</v>
       </c>
       <c r="N5">
-        <v>0.137181596931404</v>
+        <v>0.147191</v>
       </c>
       <c r="O5">
-        <v>0.000791348172365966</v>
+        <v>0.0002745989405619866</v>
       </c>
       <c r="P5">
-        <v>0.000791348172365966</v>
+        <v>0.0002745989405619865</v>
       </c>
       <c r="Q5">
-        <v>13.71309208839888</v>
+        <v>0.07159335895433334</v>
       </c>
       <c r="R5">
-        <v>13.71309208839888</v>
+        <v>0.6443402305890001</v>
       </c>
       <c r="S5">
-        <v>0.0007723673960278404</v>
+        <v>3.732482571373579E-06</v>
       </c>
       <c r="T5">
-        <v>0.0007723673960278404</v>
+        <v>3.732482571373577E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.45657245187493</v>
+        <v>1.459193</v>
       </c>
       <c r="H6">
-        <v>2.45657245187493</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I6">
-        <v>0.02398536699892413</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J6">
-        <v>0.02398536699892413</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>172.792055307549</v>
+        <v>0.1705943333333333</v>
       </c>
       <c r="N6">
-        <v>172.792055307549</v>
+        <v>0.511783</v>
       </c>
       <c r="O6">
-        <v>0.9967712887564819</v>
+        <v>0.0009547803167152554</v>
       </c>
       <c r="P6">
-        <v>0.9967712887564819</v>
+        <v>0.0009547803167152552</v>
       </c>
       <c r="Q6">
-        <v>424.4762029713741</v>
+        <v>0.2489300570396667</v>
       </c>
       <c r="R6">
-        <v>424.4762029713741</v>
+        <v>2.240370513357</v>
       </c>
       <c r="S6">
-        <v>0.0239079251748148</v>
+        <v>1.297783918735034E-05</v>
       </c>
       <c r="T6">
-        <v>0.0239079251748148</v>
+        <v>1.297783918735033E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H7">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I7">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J7">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.342281076772348</v>
+        <v>177.977656</v>
       </c>
       <c r="N7">
-        <v>0.342281076772348</v>
+        <v>533.932968</v>
       </c>
       <c r="O7">
-        <v>0.00197448863840457</v>
+        <v>0.9961032083749486</v>
       </c>
       <c r="P7">
-        <v>0.00197448863840457</v>
+        <v>0.9961032083749484</v>
       </c>
       <c r="Q7">
-        <v>0.840838263997038</v>
+        <v>18338.55580978214</v>
       </c>
       <c r="R7">
-        <v>0.840838263997038</v>
+        <v>165047.0022880392</v>
       </c>
       <c r="S7">
-        <v>4.735883462733963E-05</v>
+        <v>0.9560710789925931</v>
       </c>
       <c r="T7">
-        <v>4.735883462733963E-05</v>
+        <v>0.9560710789925927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H8">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I8">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J8">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0802400966860994</v>
+        <v>0.357538</v>
       </c>
       <c r="N8">
-        <v>0.0802400966860994</v>
+        <v>1.072614</v>
       </c>
       <c r="O8">
-        <v>0.0004628744327474515</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="P8">
-        <v>0.0004628744327474515</v>
+        <v>0.002001064385947202</v>
       </c>
       <c r="Q8">
-        <v>0.1971156110548526</v>
+        <v>36.84018946242266</v>
       </c>
       <c r="R8">
-        <v>0.1971156110548526</v>
+        <v>331.561705161804</v>
       </c>
       <c r="S8">
-        <v>1.110221314386645E-05</v>
+        <v>0.00192064413659237</v>
       </c>
       <c r="T8">
-        <v>1.110221314386645E-05</v>
+        <v>0.001920644136592369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>103.0385286666667</v>
+      </c>
+      <c r="H9">
+        <v>309.115586</v>
+      </c>
+      <c r="I9">
+        <v>0.9598112634857745</v>
+      </c>
+      <c r="J9">
+        <v>0.9598112634857743</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.119059</v>
+      </c>
+      <c r="N9">
+        <v>0.357177</v>
+      </c>
+      <c r="O9">
+        <v>0.0006663479818270728</v>
+      </c>
+      <c r="P9">
+        <v>0.0006663479818270726</v>
+      </c>
+      <c r="Q9">
+        <v>12.26766418452467</v>
+      </c>
+      <c r="R9">
+        <v>110.408977660722</v>
+      </c>
+      <c r="S9">
+        <v>0.0006395682983586387</v>
+      </c>
+      <c r="T9">
+        <v>0.0006395682983586383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>103.0385286666667</v>
+      </c>
+      <c r="H10">
+        <v>309.115586</v>
+      </c>
+      <c r="I10">
+        <v>0.9598112634857745</v>
+      </c>
+      <c r="J10">
+        <v>0.9598112634857743</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.04906366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.147191</v>
+      </c>
+      <c r="O10">
+        <v>0.0002745989405619866</v>
+      </c>
+      <c r="P10">
+        <v>0.0002745989405619865</v>
+      </c>
+      <c r="Q10">
+        <v>5.055448024325112</v>
+      </c>
+      <c r="R10">
+        <v>45.499032218926</v>
+      </c>
+      <c r="S10">
+        <v>0.0002635631560926554</v>
+      </c>
+      <c r="T10">
+        <v>0.0002635631560926553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>103.0385286666667</v>
+      </c>
+      <c r="H11">
+        <v>309.115586</v>
+      </c>
+      <c r="I11">
+        <v>0.9598112634857745</v>
+      </c>
+      <c r="J11">
+        <v>0.9598112634857743</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1705943333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.511783</v>
+      </c>
+      <c r="O11">
+        <v>0.0009547803167152554</v>
+      </c>
+      <c r="P11">
+        <v>0.0009547803167152552</v>
+      </c>
+      <c r="Q11">
+        <v>17.57778910553755</v>
+      </c>
+      <c r="R11">
+        <v>158.200101949838</v>
+      </c>
+      <c r="S11">
+        <v>0.0009164089021378172</v>
+      </c>
+      <c r="T11">
+        <v>0.0009164089021378168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H12">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J12">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>177.977656</v>
+      </c>
+      <c r="N12">
+        <v>533.932968</v>
+      </c>
+      <c r="O12">
+        <v>0.9961032083749486</v>
+      </c>
+      <c r="P12">
+        <v>0.9961032083749484</v>
+      </c>
+      <c r="Q12">
+        <v>508.1590744204746</v>
+      </c>
+      <c r="R12">
+        <v>4573.431669784271</v>
+      </c>
+      <c r="S12">
+        <v>0.02649260932106258</v>
+      </c>
+      <c r="T12">
+        <v>0.02649260932106257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.45657245187493</v>
-      </c>
-      <c r="H9">
-        <v>2.45657245187493</v>
-      </c>
-      <c r="I9">
-        <v>0.02398536699892413</v>
-      </c>
-      <c r="J9">
-        <v>0.02398536699892413</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.137181596931404</v>
-      </c>
-      <c r="N9">
-        <v>0.137181596931404</v>
-      </c>
-      <c r="O9">
-        <v>0.000791348172365966</v>
-      </c>
-      <c r="P9">
-        <v>0.000791348172365966</v>
-      </c>
-      <c r="Q9">
-        <v>0.3369965319258975</v>
-      </c>
-      <c r="R9">
-        <v>0.3369965319258975</v>
-      </c>
-      <c r="S9">
-        <v>1.898077633812556E-05</v>
-      </c>
-      <c r="T9">
-        <v>1.898077633812556E-05</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H13">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J13">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.357538</v>
+      </c>
+      <c r="N13">
+        <v>1.072614</v>
+      </c>
+      <c r="O13">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="P13">
+        <v>0.002001064385947202</v>
+      </c>
+      <c r="Q13">
+        <v>1.020837015350667</v>
+      </c>
+      <c r="R13">
+        <v>9.187533138155999</v>
+      </c>
+      <c r="S13">
+        <v>5.322080739974501E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.322080739974498E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H14">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J14">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.119059</v>
+      </c>
+      <c r="N14">
+        <v>0.357177</v>
+      </c>
+      <c r="O14">
+        <v>0.0006663479818270728</v>
+      </c>
+      <c r="P14">
+        <v>0.0006663479818270726</v>
+      </c>
+      <c r="Q14">
+        <v>0.3399354312286667</v>
+      </c>
+      <c r="R14">
+        <v>3.059418881058</v>
+      </c>
+      <c r="S14">
+        <v>1.772235708709632E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.772235708709631E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H15">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J15">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.04906366666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.147191</v>
+      </c>
+      <c r="O15">
+        <v>0.0002745989405619866</v>
+      </c>
+      <c r="P15">
+        <v>0.0002745989405619865</v>
+      </c>
+      <c r="Q15">
+        <v>0.1400858287571111</v>
+      </c>
+      <c r="R15">
+        <v>1.260772458814</v>
+      </c>
+      <c r="S15">
+        <v>7.303301897957578E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.303301897957575E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H16">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J16">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1705943333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.511783</v>
+      </c>
+      <c r="O16">
+        <v>0.0009547803167152554</v>
+      </c>
+      <c r="P16">
+        <v>0.0009547803167152552</v>
+      </c>
+      <c r="Q16">
+        <v>0.4870783247535554</v>
+      </c>
+      <c r="R16">
+        <v>4.383704922781999</v>
+      </c>
+      <c r="S16">
+        <v>2.539357539008786E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.539357539008785E-05</v>
       </c>
     </row>
   </sheetData>
